--- a/src/assets/files/FileProjection.xlsx
+++ b/src/assets/files/FileProjection.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bright Agofure\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>S/N</t>
   </si>
@@ -84,48 +84,6 @@
   </si>
   <si>
     <t>LIFE ASSURANCE</t>
-  </si>
-  <si>
-    <t>hehhee</t>
-  </si>
-  <si>
-    <t>ndjdj</t>
-  </si>
-  <si>
-    <t>2012334444</t>
-  </si>
-  <si>
-    <t>niaji</t>
-  </si>
-  <si>
-    <t>boleh</t>
-  </si>
-  <si>
-    <t>TenHang</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>hnnnk</t>
-  </si>
-  <si>
-    <t>bgchbch</t>
-  </si>
-  <si>
-    <t>2033223323</t>
-  </si>
-  <si>
-    <t>nooot</t>
-  </si>
-  <si>
-    <t>kijjs</t>
-  </si>
-  <si>
-    <t>flop</t>
-  </si>
-  <si>
-    <t>May</t>
   </si>
 </sst>
 </file>
@@ -189,18 +147,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -491,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -583,162 +535,71 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2">
-        <v>200000</v>
-      </c>
-      <c r="N2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3000</v>
-      </c>
-      <c r="P2" s="2">
-        <v>240000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>40000</v>
-      </c>
-      <c r="S2" s="5"/>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="N3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="O3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5">
-        <v>2000</v>
-      </c>
-      <c r="S3" s="5">
-        <v>40000</v>
-      </c>
-      <c r="T3" s="5"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5">
       <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
       <formula2>0</formula2>
     </dataValidation>
